--- a/public/downloads/TESTED-STRICT-CURL.xlsx
+++ b/public/downloads/TESTED-STRICT-CURL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b791772ed41bd66b/Desktop/2023 NEW TEMPLATE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b791772ed41bd66b/Desktop/2023 ROLLING  RECORDS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="739" documentId="8_{549BB9C3-8073-4280-B78C-D5FDAA0537B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62C11869-5E3B-4A04-A90B-8DDAABB86173}"/>
+  <xr:revisionPtr revIDLastSave="756" documentId="8_{549BB9C3-8073-4280-B78C-D5FDAA0537B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{523284B2-13CB-420B-9209-556C21636BE1}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{4154235A-A9CC-3C49-98D1-D24EB0BE76D8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{4154235A-A9CC-3C49-98D1-D24EB0BE76D8}"/>
   </bookViews>
   <sheets>
     <sheet name="MEN OPEN" sheetId="5" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="113">
   <si>
     <t>Weight</t>
   </si>
@@ -367,6 +367,21 @@
   </si>
   <si>
     <t>DONNA SMITH</t>
+  </si>
+  <si>
+    <t>women of iron</t>
+  </si>
+  <si>
+    <t>31.0KG</t>
+  </si>
+  <si>
+    <t>sue davies</t>
+  </si>
+  <si>
+    <t>47.5kg</t>
+  </si>
+  <si>
+    <t>37.5kg</t>
   </si>
 </sst>
 </file>
@@ -454,10 +469,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1689,8 +1700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7186C1C6-534A-8649-9BC5-24AFC98A5F9D}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1918,13 +1929,13 @@
         <v>54</v>
       </c>
       <c r="E22" s="7">
-        <v>45024</v>
+        <v>45165</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -4236,13 +4247,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7517E2C-6F9F-784C-B257-599DEE4B6BE5}">
   <dimension ref="A1:G231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="117" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView topLeftCell="A52" zoomScale="117" workbookViewId="0">
+      <selection activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="7" width="10.6640625" style="4"/>
+    <col min="4" max="4" width="14.25" style="4" customWidth="1"/>
+    <col min="5" max="7" width="10.6640625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -4797,7 +4809,7 @@
       <c r="C64" s="1"/>
       <c r="D64" s="5"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="2"/>
       <c r="B65" s="1" t="s">
         <v>8</v>
@@ -4807,13 +4819,13 @@
       </c>
       <c r="D65" s="5"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="2"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="5"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="2"/>
       <c r="B67" s="1" t="s">
         <v>9</v>
@@ -4821,15 +4833,26 @@
       <c r="C67" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D67" s="5"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D67" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E67" s="7">
+        <v>45165</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="2"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="5"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="2"/>
       <c r="B69" s="1" t="s">
         <v>10</v>
@@ -4839,13 +4862,13 @@
       </c>
       <c r="D69" s="5"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="2"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="5"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" s="2"/>
       <c r="B71" s="1" t="s">
         <v>11</v>
@@ -4855,13 +4878,13 @@
       </c>
       <c r="D71" s="5"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="2"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="5"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="2"/>
       <c r="B73" s="1" t="s">
         <v>29</v>
@@ -4871,13 +4894,13 @@
       </c>
       <c r="D73" s="5"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="2"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="5"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="2"/>
       <c r="B75" s="1" t="s">
         <v>30</v>
@@ -4887,13 +4910,13 @@
       </c>
       <c r="D75" s="5"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" s="2"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="5"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" s="2"/>
       <c r="B77" s="1" t="s">
         <v>31</v>
@@ -4903,20 +4926,20 @@
       </c>
       <c r="D77" s="5"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" s="2"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="5"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" s="2"/>
       <c r="B79" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="2"/>
       <c r="B80" s="1" t="s">
         <v>0</v>
@@ -5018,13 +5041,13 @@
         <v>49</v>
       </c>
       <c r="E91" s="7">
-        <v>45024</v>
+        <v>45165</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>51</v>
+        <v>109</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">

--- a/public/downloads/TESTED-STRICT-CURL.xlsx
+++ b/public/downloads/TESTED-STRICT-CURL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b791772ed41bd66b/Desktop/2023 ROLLING  RECORDS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b791772ed41bd66b/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="756" documentId="8_{549BB9C3-8073-4280-B78C-D5FDAA0537B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{523284B2-13CB-420B-9209-556C21636BE1}"/>
+  <xr:revisionPtr revIDLastSave="105" documentId="8_{D3FFD2DE-F7E8-4864-BD78-B935C1BCEDB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F0FD246-03E2-432C-BB32-2FA3C79F5D5F}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{4154235A-A9CC-3C49-98D1-D24EB0BE76D8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4154235A-A9CC-3C49-98D1-D24EB0BE76D8}"/>
   </bookViews>
   <sheets>
     <sheet name="MEN OPEN" sheetId="5" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="95">
   <si>
     <t>Weight</t>
   </si>
@@ -192,196 +192,142 @@
     <t xml:space="preserve">MASTER 80+ </t>
   </si>
   <si>
+    <t>PETER BATTLE</t>
+  </si>
+  <si>
+    <t>JOHN GRIFFITHS</t>
+  </si>
+  <si>
+    <t>EUR &amp; COM CHAMPIONSHIPS</t>
+  </si>
+  <si>
+    <t>45.0KG</t>
+  </si>
+  <si>
+    <t>125KG</t>
+  </si>
+  <si>
+    <t>140KG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OPEN WOMEN </t>
+  </si>
+  <si>
+    <t>110kg</t>
+  </si>
+  <si>
+    <t>CALEB WHITE</t>
+  </si>
+  <si>
+    <t>77.5KG</t>
+  </si>
+  <si>
+    <t>DAVID WARMUZ</t>
+  </si>
+  <si>
+    <t>75KG</t>
+  </si>
+  <si>
+    <t>WORLD CUP</t>
+  </si>
+  <si>
+    <t>POL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MARCIN MARSZALEK</t>
+  </si>
+  <si>
+    <t>70.0KG</t>
+  </si>
+  <si>
+    <t>140KG+</t>
+  </si>
+  <si>
+    <t>IMRAN KHAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.0KG </t>
+  </si>
+  <si>
+    <t>GBR</t>
+  </si>
+  <si>
+    <t>MATHEW TAYLOR</t>
+  </si>
+  <si>
+    <t>WOURLD CUP</t>
+  </si>
+  <si>
+    <t>57.5KG</t>
+  </si>
+  <si>
+    <t>125.0KG</t>
+  </si>
+  <si>
+    <t>140.0KG</t>
+  </si>
+  <si>
+    <t>CHARLIE SIMOON</t>
+  </si>
+  <si>
+    <t>52.5KG</t>
+  </si>
+  <si>
+    <t>ROZA WAGNER</t>
+  </si>
+  <si>
+    <t>47.5KG</t>
+  </si>
+  <si>
+    <t>130.0KG</t>
+  </si>
+  <si>
+    <t>LUKASZ WARMUZ</t>
+  </si>
+  <si>
+    <t>82.5KG</t>
+  </si>
+  <si>
+    <t>JASON ROBERTS</t>
+  </si>
+  <si>
+    <t>21/10/2023`</t>
+  </si>
+  <si>
+    <t>HAWAII</t>
+  </si>
+  <si>
+    <t>JONATHAN CHIMA MAXWELL</t>
+  </si>
+  <si>
+    <t>100.0KG</t>
+  </si>
+  <si>
+    <t>38.5KG</t>
+  </si>
+  <si>
+    <t>SAL LACK</t>
+  </si>
+  <si>
+    <t>27.5KG</t>
+  </si>
+  <si>
     <t>NICOLA ELDING</t>
   </si>
   <si>
-    <t>BRITISH CHAMPIONSHIP</t>
-  </si>
-  <si>
     <t>30.0KG</t>
   </si>
   <si>
-    <t>SALLY LACK</t>
-  </si>
-  <si>
-    <t>37.5KG</t>
-  </si>
-  <si>
-    <t>LUCY MOORE</t>
-  </si>
-  <si>
-    <t>35.0KG</t>
-  </si>
-  <si>
-    <t>STRICT CYRL</t>
-  </si>
-  <si>
-    <t>KELLY BROWN</t>
-  </si>
-  <si>
-    <t>125KG</t>
-  </si>
-  <si>
-    <t>140KG</t>
-  </si>
-  <si>
-    <t>140+KG</t>
-  </si>
-  <si>
-    <t>STRICT  CURL</t>
-  </si>
-  <si>
-    <t>CHARLIE SIMON</t>
-  </si>
-  <si>
-    <t>45KG</t>
-  </si>
-  <si>
-    <t>NUMAAN RAFIQUE</t>
-  </si>
-  <si>
-    <t>MATHEW TAYLOR</t>
-  </si>
-  <si>
-    <t>55.0KG</t>
-  </si>
-  <si>
-    <t>IMRAN KHAN</t>
-  </si>
-  <si>
-    <t>60.0KG</t>
-  </si>
-  <si>
-    <t>110kg</t>
-  </si>
-  <si>
-    <t>STICT CURL</t>
-  </si>
-  <si>
-    <t>PAUL BAINES</t>
-  </si>
-  <si>
-    <t>70.0KG</t>
-  </si>
-  <si>
-    <t>JONATHAN CHIMA MAXWELL</t>
-  </si>
-  <si>
-    <t>94.0KG</t>
-  </si>
-  <si>
-    <t>JAMIE CHALLENGER</t>
-  </si>
-  <si>
-    <t>50.0KG</t>
-  </si>
-  <si>
-    <t>JAVENO MCLEAN</t>
-  </si>
-  <si>
-    <t>MONTY CROWN</t>
-  </si>
-  <si>
-    <t>SHAUN JARRETT</t>
-  </si>
-  <si>
-    <t>EUR &amp; COM CHAMPIONSHIPS</t>
-  </si>
-  <si>
-    <t>82.5KG</t>
-  </si>
-  <si>
-    <t>57.5KG</t>
-  </si>
-  <si>
-    <t>DAVID MANNERING</t>
-  </si>
-  <si>
-    <t>BPF RECORD BREAKERS</t>
-  </si>
-  <si>
-    <t>40.0KG</t>
-  </si>
-  <si>
-    <t>MATTHEW BEVAN</t>
-  </si>
-  <si>
-    <t>45.0KG</t>
-  </si>
-  <si>
-    <t>ROB CLAY</t>
-  </si>
-  <si>
-    <t>MAYHEM IN BOSTON</t>
-  </si>
-  <si>
-    <t>72.5KG</t>
-  </si>
-  <si>
-    <t>MAYHHEM IN BOSTON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OPEN WOMEN </t>
-  </si>
-  <si>
-    <t>JAMIE STUBBS</t>
-  </si>
-  <si>
-    <t>EUR &amp; COM</t>
-  </si>
-  <si>
-    <t>28.5KG</t>
-  </si>
-  <si>
-    <t>IZZY COTTON</t>
-  </si>
-  <si>
-    <t>BPF ACADEMY</t>
-  </si>
-  <si>
-    <t>20.0KG</t>
-  </si>
-  <si>
-    <t>HEATHER SWAIN</t>
-  </si>
-  <si>
-    <t>RECORD BREAKERS</t>
-  </si>
-  <si>
-    <t>ROZ GRIFFITHS</t>
-  </si>
-  <si>
-    <t>04/09/202</t>
-  </si>
-  <si>
-    <t>MANSFIELD MANIER</t>
-  </si>
-  <si>
-    <t>25.0KG</t>
-  </si>
-  <si>
-    <t>HOLLIE DOUGLESS</t>
-  </si>
-  <si>
-    <t>THE MONTY CROWN</t>
-  </si>
-  <si>
-    <t>DONNA SMITH</t>
-  </si>
-  <si>
-    <t>women of iron</t>
-  </si>
-  <si>
-    <t>31.0KG</t>
-  </si>
-  <si>
-    <t>sue davies</t>
-  </si>
-  <si>
-    <t>47.5kg</t>
-  </si>
-  <si>
-    <t>37.5kg</t>
+    <t>kalil zaky</t>
+  </si>
+  <si>
+    <t>wourld cup</t>
+  </si>
+  <si>
+    <t>70.0kg</t>
+  </si>
+  <si>
+    <t>USA</t>
   </si>
 </sst>
 </file>
@@ -469,6 +415,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -768,10 +718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{306999F4-8918-254E-B53D-F64ABC5BF343}">
-  <dimension ref="A1:G124"/>
+  <dimension ref="A1:H124"/>
   <sheetViews>
-    <sheetView topLeftCell="D15" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -779,14 +729,17 @@
     <col min="1" max="1" width="20.4140625" style="4" customWidth="1"/>
     <col min="2" max="2" width="20.58203125" style="4" customWidth="1"/>
     <col min="3" max="3" width="18.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14.25" customWidth="1"/>
+    <col min="5" max="5" width="12.25" customWidth="1"/>
+    <col min="6" max="6" width="21.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1"/>
       <c r="B1"/>
       <c r="C1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -798,7 +751,7 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -807,7 +760,7 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="1" t="s">
         <v>13</v>
@@ -826,7 +779,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
@@ -835,14 +788,14 @@
       <c r="D5" s="5"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="5"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="1" t="s">
         <v>14</v>
@@ -853,14 +806,14 @@
       <c r="D7" s="5"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="5"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="1" t="s">
         <v>5</v>
@@ -871,14 +824,14 @@
       <c r="D9" s="5"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="5"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="1" t="s">
         <v>6</v>
@@ -889,14 +842,14 @@
       <c r="D11" s="5"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="5"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="1" t="s">
         <v>7</v>
@@ -904,17 +857,30 @@
       <c r="C13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D13" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" s="7">
+        <v>45220</v>
+      </c>
+      <c r="F13" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" t="s">
+        <v>93</v>
+      </c>
+      <c r="H13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="5"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="1" t="s">
         <v>8</v>
@@ -925,14 +891,14 @@
       <c r="D15" s="5"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="5"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="1" t="s">
         <v>9</v>
@@ -941,26 +907,29 @@
         <v>35</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E17" s="7">
-        <v>45024</v>
+        <v>45220</v>
       </c>
       <c r="F17" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+      <c r="H17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="5"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="1" t="s">
         <v>10</v>
@@ -968,27 +937,17 @@
       <c r="C19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" s="7">
-        <v>44695</v>
-      </c>
-      <c r="F19" t="s">
-        <v>50</v>
-      </c>
-      <c r="G19" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D19" s="5"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="5"/>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="1" t="s">
         <v>11</v>
@@ -996,27 +955,17 @@
       <c r="C21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E21" s="7">
-        <v>44962</v>
-      </c>
-      <c r="F21" t="s">
-        <v>78</v>
-      </c>
-      <c r="G21" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D21" s="5"/>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="5"/>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
       <c r="B23" s="1" t="s">
         <v>29</v>
@@ -1025,16 +974,16 @@
         <v>35</v>
       </c>
       <c r="D23" s="5"/>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E23" s="7"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="5"/>
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
       <c r="B25" s="1" t="s">
         <v>30</v>
@@ -1043,100 +992,98 @@
         <v>35</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="E25" s="7">
-        <v>44731</v>
+        <v>45220</v>
       </c>
       <c r="F25" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="G25" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+      <c r="H25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="E27" s="8">
-        <v>45024</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>50</v>
+        <v>45220</v>
+      </c>
+      <c r="F27" t="s">
+        <v>61</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="8">
+        <v>45220</v>
+      </c>
+      <c r="F29" t="s">
+        <v>61</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E29" s="8">
-        <v>44962</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H29" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E31" s="8">
-        <v>45024</v>
-      </c>
-      <c r="F31" t="s">
-        <v>50</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1698,35 +1645,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7186C1C6-534A-8649-9BC5-24AFC98A5F9D}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="15.25" style="4" customWidth="1"/>
-    <col min="5" max="5" width="15.58203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="23.33203125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="27" style="4" customWidth="1"/>
+    <col min="4" max="4" width="18" style="4" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="28.33203125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="13.5" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="B1" s="1"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
         <v>13</v>
@@ -1747,7 +1694,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
@@ -1756,14 +1703,14 @@
       <c r="D4" s="5"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="5"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
         <v>14</v>
@@ -1774,14 +1721,14 @@
       <c r="D6" s="5"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="5"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
@@ -1792,14 +1739,14 @@
       <c r="D8" s="5"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="5"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="1" t="s">
         <v>6</v>
@@ -1807,27 +1754,17 @@
       <c r="C10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E10" s="7">
-        <v>44729</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D10" s="5"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="5"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="1" t="s">
         <v>7</v>
@@ -1838,14 +1775,14 @@
       <c r="D12" s="5"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="5"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="1" t="s">
         <v>8</v>
@@ -1853,17 +1790,30 @@
       <c r="C14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D14" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="7">
+        <v>45220</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="5"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="1" t="s">
         <v>9</v>
@@ -1872,16 +1822,17 @@
         <v>35</v>
       </c>
       <c r="D16" s="5"/>
+      <c r="E16" s="7"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="5"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="1" t="s">
         <v>10</v>
@@ -1890,16 +1841,17 @@
         <v>35</v>
       </c>
       <c r="D18" s="5"/>
+      <c r="E18" s="7"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="5"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="1" t="s">
         <v>11</v>
@@ -1910,14 +1862,14 @@
       <c r="D20" s="5"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="5"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
       <c r="B22" s="1" t="s">
         <v>29</v>
@@ -1925,27 +1877,17 @@
       <c r="C22" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" s="7">
-        <v>45165</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D22" s="5"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="5"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
       <c r="B24" s="1" t="s">
         <v>30</v>
@@ -1955,26 +1897,6 @@
       </c>
       <c r="D24" s="5"/>
       <c r="F24" s="4"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B26" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E26" s="7">
-        <v>44877</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>85</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1983,17 +1905,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C68180E9-570C-BE40-A2EC-46381CEBEE35}">
-  <dimension ref="A1:G239"/>
+  <dimension ref="A1:H239"/>
   <sheetViews>
-    <sheetView topLeftCell="A68" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G107" sqref="G107"/>
+    <sheetView topLeftCell="B215" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H231" sqref="H231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="10.6640625" style="4"/>
-    <col min="4" max="4" width="19.75" customWidth="1"/>
-    <col min="6" max="6" width="24" customWidth="1"/>
+    <col min="1" max="2" width="10.6640625" style="4"/>
+    <col min="3" max="3" width="16" style="4" customWidth="1"/>
+    <col min="4" max="4" width="20.4140625" customWidth="1"/>
+    <col min="6" max="6" width="20.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -2146,14 +2069,14 @@
       <c r="D16" s="5"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="5"/>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="1" t="s">
         <v>10</v>
@@ -2164,14 +2087,14 @@
       <c r="D18" s="5"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="5"/>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="1" t="s">
         <v>11</v>
@@ -2179,17 +2102,30 @@
       <c r="C20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D20" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="7">
+        <v>45220</v>
+      </c>
+      <c r="F20" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" t="s">
+        <v>64</v>
+      </c>
+      <c r="H20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="5"/>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
       <c r="B22" s="1" t="s">
         <v>29</v>
@@ -2198,16 +2134,16 @@
         <v>35</v>
       </c>
       <c r="D22" s="5"/>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="5"/>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
       <c r="B24" s="1" t="s">
         <v>30</v>
@@ -2215,592 +2151,590 @@
       <c r="C24" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="4"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D24" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="7">
+        <v>45220</v>
+      </c>
+      <c r="F24" t="s">
+        <v>61</v>
+      </c>
+      <c r="G24" t="s">
+        <v>60</v>
+      </c>
+      <c r="H24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="5"/>
       <c r="E25" s="4"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
       <c r="B26" s="1" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D26" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" s="7">
+        <v>45220</v>
+      </c>
+      <c r="F26" t="s">
+        <v>61</v>
+      </c>
+      <c r="G26" t="s">
+        <v>80</v>
+      </c>
+      <c r="H26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
-      <c r="B27" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="4"/>
+      <c r="D27" s="5"/>
       <c r="E27" s="4"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
       <c r="B28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>1</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="C28" s="1"/>
       <c r="D28" s="5"/>
       <c r="E28" s="4"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="2"/>
-      <c r="B29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
       <c r="D29" s="5"/>
       <c r="E29" s="4"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="5"/>
       <c r="E30" s="4"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="2"/>
-      <c r="B31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
       <c r="D31" s="5"/>
       <c r="E31" s="4"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="2"/>
-      <c r="B32" s="1"/>
+      <c r="B32" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="C32" s="1"/>
-      <c r="D32" s="5"/>
+      <c r="D32" s="4"/>
       <c r="E32" s="4"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="2"/>
       <c r="B33" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="4"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="2"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
+      <c r="B34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="D34" s="5"/>
       <c r="E34" s="4"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
-      <c r="B35" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
       <c r="D35" s="5"/>
       <c r="E35" s="4"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
+      <c r="B36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="D36" s="5"/>
       <c r="E36" s="4"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="2"/>
-      <c r="B37" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
       <c r="D37" s="5"/>
       <c r="E37" s="4"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="2"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
+      <c r="B38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="D38" s="5"/>
       <c r="E38" s="4"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="2"/>
-      <c r="B39" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
       <c r="D39" s="5"/>
       <c r="E39" s="4"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="2"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
+      <c r="B40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="D40" s="5"/>
       <c r="E40" s="4"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="2"/>
-      <c r="B41" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
       <c r="D41" s="5"/>
       <c r="E41" s="4"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="2"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
+      <c r="B42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="D42" s="5"/>
       <c r="E42" s="4"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="2"/>
-      <c r="B43" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
       <c r="D43" s="5"/>
       <c r="E43" s="4"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="2"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
+      <c r="B44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="D44" s="5"/>
       <c r="E44" s="4"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="2"/>
-      <c r="B45" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
       <c r="D45" s="5"/>
       <c r="E45" s="4"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="2"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
+      <c r="B46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="D46" s="5"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E46" s="4"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="2"/>
-      <c r="B47" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E47" s="8">
-        <v>45024</v>
-      </c>
-      <c r="F47" t="s">
-        <v>50</v>
-      </c>
-      <c r="G47" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="4"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="2"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
+      <c r="B48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="D48" s="5"/>
       <c r="E48" s="4"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="2"/>
-      <c r="B49" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
       <c r="D49" s="5"/>
       <c r="E49" s="4"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="2"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
+      <c r="B50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="D50" s="5"/>
       <c r="E50" s="4"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="2"/>
-      <c r="B51" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
       <c r="D51" s="5"/>
       <c r="E51" s="4"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="2"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
+      <c r="B52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="D52" s="5"/>
       <c r="E52" s="4"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="2"/>
-      <c r="B53" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="B53" s="1"/>
       <c r="C53" s="1"/>
-      <c r="D53" s="4"/>
+      <c r="D53" s="5"/>
       <c r="E53" s="4"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="2"/>
       <c r="B54" s="1" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="D54" s="5"/>
       <c r="E54" s="4"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="2"/>
-      <c r="B55" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
       <c r="D55" s="5"/>
       <c r="E55" s="4"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="2"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
+      <c r="B56" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="D56" s="5"/>
       <c r="E56" s="4"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="2"/>
-      <c r="B57" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
       <c r="D57" s="5"/>
       <c r="E57" s="4"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="2"/>
-      <c r="B58" s="1"/>
+      <c r="B58" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="C58" s="1"/>
-      <c r="D58" s="5"/>
+      <c r="D58" s="4"/>
       <c r="E58" s="4"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="2"/>
       <c r="B59" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="D59" s="5"/>
       <c r="E59" s="4"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="2"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
+      <c r="B60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="D60" s="5"/>
       <c r="E60" s="4"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="2"/>
-      <c r="B61" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
       <c r="D61" s="5"/>
       <c r="E61" s="4"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="2"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
+      <c r="B62" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="D62" s="5"/>
       <c r="E62" s="4"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="2"/>
-      <c r="B63" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
       <c r="D63" s="5"/>
       <c r="E63" s="4"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="2"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
+      <c r="B64" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="D64" s="5"/>
       <c r="E64" s="4"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" s="2"/>
-      <c r="B65" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
       <c r="D65" s="5"/>
       <c r="E65" s="4"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" s="2"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
+      <c r="B66" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="D66" s="5"/>
       <c r="E66" s="4"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" s="2"/>
-      <c r="B67" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
       <c r="D67" s="5"/>
       <c r="E67" s="4"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" s="2"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
+      <c r="B68" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="D68" s="5"/>
       <c r="E68" s="4"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" s="2"/>
-      <c r="B69" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
       <c r="D69" s="5"/>
       <c r="E69" s="4"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" s="2"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
+      <c r="B70" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="D70" s="5"/>
       <c r="E70" s="4"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" s="2"/>
-      <c r="B71" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
       <c r="D71" s="5"/>
       <c r="E71" s="4"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" s="2"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
+      <c r="B72" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="D72" s="5"/>
       <c r="E72" s="4"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" s="2"/>
-      <c r="B73" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="E73" s="7">
-        <v>44962</v>
-      </c>
-      <c r="F73" t="s">
-        <v>78</v>
-      </c>
-      <c r="G73" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="4"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" s="2"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="4"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B74" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F74" t="s">
+        <v>61</v>
+      </c>
+      <c r="G74" t="s">
+        <v>52</v>
+      </c>
+      <c r="H74" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" s="2"/>
-      <c r="B75" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
       <c r="D75" s="5"/>
       <c r="E75" s="4"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" s="2"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
+      <c r="B76" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="D76" s="5"/>
       <c r="E76" s="4"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" s="2"/>
-      <c r="B77" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
       <c r="D77" s="5"/>
       <c r="E77" s="4"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" s="2"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
+      <c r="B78" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="D78" s="5"/>
       <c r="E78" s="4"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" s="2"/>
-      <c r="B79" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E79" s="7">
-        <v>44660</v>
-      </c>
-      <c r="F79" t="s">
-        <v>78</v>
-      </c>
-      <c r="G79" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="4"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" s="2"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
+      <c r="B80" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="D80" s="5"/>
       <c r="E80" s="4"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="2"/>
-      <c r="B81" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="B81" s="1"/>
       <c r="C81" s="1"/>
-      <c r="D81" s="4"/>
+      <c r="D81" s="5"/>
       <c r="E81" s="4"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="2"/>
       <c r="B82" s="1" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="D82" s="5"/>
-      <c r="E82" s="4"/>
+      <c r="E82" s="7"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="2"/>
-      <c r="B83" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
       <c r="D83" s="5"/>
       <c r="E83" s="4"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="2"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
+      <c r="B84" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="D84" s="5"/>
-      <c r="E84" s="4"/>
+      <c r="E84" s="7"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="2"/>
-      <c r="B85" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
       <c r="D85" s="5"/>
       <c r="E85" s="4"/>
     </row>
@@ -2813,26 +2747,28 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="2"/>
-      <c r="B87" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D87" s="5"/>
+      <c r="B87" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C87" s="1"/>
+      <c r="D87" s="4"/>
       <c r="E87" s="4"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="2"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
+      <c r="B88" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D88" s="5"/>
       <c r="E88" s="4"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="2"/>
       <c r="B89" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>35</v>
@@ -2850,7 +2786,7 @@
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="2"/>
       <c r="B91" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>35</v>
@@ -2868,7 +2804,7 @@
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="2"/>
       <c r="B93" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>35</v>
@@ -2886,7 +2822,7 @@
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="2"/>
       <c r="B95" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>35</v>
@@ -2901,10 +2837,10 @@
       <c r="D96" s="5"/>
       <c r="E96" s="4"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="2"/>
       <c r="B97" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>35</v>
@@ -2912,17 +2848,17 @@
       <c r="D97" s="5"/>
       <c r="E97" s="4"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="2"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="5"/>
       <c r="E98" s="4"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="2"/>
       <c r="B99" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>35</v>
@@ -2930,17 +2866,17 @@
       <c r="D99" s="5"/>
       <c r="E99" s="4"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="2"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="5"/>
       <c r="E100" s="4"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="2"/>
       <c r="B101" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>35</v>
@@ -2948,17 +2884,17 @@
       <c r="D101" s="5"/>
       <c r="E101" s="4"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="2"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="5"/>
       <c r="E102" s="4"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="2"/>
       <c r="B103" s="1" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>35</v>
@@ -2966,88 +2902,68 @@
       <c r="D103" s="5"/>
       <c r="E103" s="4"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="2"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="5"/>
       <c r="E104" s="4"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="2"/>
       <c r="B105" s="1" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="D105" s="5"/>
-      <c r="E105" s="4"/>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E105" s="7"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="2"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="5"/>
       <c r="E106" s="4"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="2"/>
       <c r="B107" s="1" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D107" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E107" s="7">
-        <v>44660</v>
-      </c>
-      <c r="F107" t="s">
-        <v>91</v>
-      </c>
-      <c r="G107" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+      <c r="D107" s="5"/>
+      <c r="E107" s="4"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="2"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="5"/>
       <c r="E108" s="4"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="2"/>
       <c r="B109" s="1" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D109" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E109" s="7">
-        <v>44611</v>
-      </c>
-      <c r="F109" t="s">
-        <v>80</v>
-      </c>
-      <c r="G109" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+      <c r="D109" s="5"/>
+      <c r="E109" s="4"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="2"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="5"/>
       <c r="E110" s="4"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="2"/>
       <c r="B111" s="1" t="s">
         <v>44</v>
@@ -3056,7 +2972,7 @@
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" s="2"/>
       <c r="B112" s="1" t="s">
         <v>0</v>
@@ -3067,7 +2983,7 @@
       <c r="D112" s="5"/>
       <c r="E112" s="4"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" s="2"/>
       <c r="B113" s="1" t="s">
         <v>13</v>
@@ -3078,14 +2994,14 @@
       <c r="D113" s="5"/>
       <c r="E113" s="4"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" s="2"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="5"/>
       <c r="E114" s="4"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" s="2"/>
       <c r="B115" s="1" t="s">
         <v>14</v>
@@ -3096,14 +3012,14 @@
       <c r="D115" s="5"/>
       <c r="E115" s="4"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" s="2"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="5"/>
       <c r="E116" s="4"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" s="2"/>
       <c r="B117" s="1" t="s">
         <v>5</v>
@@ -3114,14 +3030,14 @@
       <c r="D117" s="5"/>
       <c r="E117" s="4"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" s="2"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="5"/>
       <c r="E118" s="4"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" s="2"/>
       <c r="B119" s="1" t="s">
         <v>6</v>
@@ -3132,14 +3048,14 @@
       <c r="D119" s="5"/>
       <c r="E119" s="4"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" s="2"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="5"/>
       <c r="E120" s="4"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" s="2"/>
       <c r="B121" s="1" t="s">
         <v>7</v>
@@ -3150,14 +3066,14 @@
       <c r="D121" s="5"/>
       <c r="E121" s="4"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" s="2"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="5"/>
       <c r="E122" s="4"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" s="2"/>
       <c r="B123" s="1" t="s">
         <v>8</v>
@@ -3168,14 +3084,14 @@
       <c r="D123" s="5"/>
       <c r="E123" s="4"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" s="2"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="5"/>
       <c r="E124" s="4"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" s="2"/>
       <c r="B125" s="1" t="s">
         <v>9</v>
@@ -3183,27 +3099,17 @@
       <c r="C125" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D125" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E125" s="7">
-        <v>44877</v>
-      </c>
-      <c r="F125" t="s">
-        <v>84</v>
-      </c>
-      <c r="G125" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D125" s="5"/>
+      <c r="E125" s="4"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" s="2"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="5"/>
       <c r="E126" s="4"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" s="2"/>
       <c r="B127" s="1" t="s">
         <v>10</v>
@@ -3214,7 +3120,7 @@
       <c r="D127" s="5"/>
       <c r="E127" s="4"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" s="2"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -3367,7 +3273,7 @@
       <c r="D144" s="5"/>
       <c r="E144" s="4"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" s="2"/>
       <c r="B145" s="1" t="s">
         <v>6</v>
@@ -3378,14 +3284,14 @@
       <c r="D145" s="5"/>
       <c r="E145" s="4"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" s="2"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="5"/>
       <c r="E146" s="4"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" s="2"/>
       <c r="B147" s="1" t="s">
         <v>7</v>
@@ -3396,14 +3302,14 @@
       <c r="D147" s="5"/>
       <c r="E147" s="4"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" s="2"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="5"/>
       <c r="E148" s="4"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" s="2"/>
       <c r="B149" s="1" t="s">
         <v>8</v>
@@ -3414,14 +3320,14 @@
       <c r="D149" s="5"/>
       <c r="E149" s="4"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" s="2"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="5"/>
       <c r="E150" s="4"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" s="2"/>
       <c r="B151" s="1" t="s">
         <v>9</v>
@@ -3432,14 +3338,14 @@
       <c r="D151" s="5"/>
       <c r="E151" s="4"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" s="2"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="5"/>
       <c r="E152" s="4"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" s="2"/>
       <c r="B153" s="1" t="s">
         <v>10</v>
@@ -3450,14 +3356,14 @@
       <c r="D153" s="5"/>
       <c r="E153" s="4"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" s="2"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="5"/>
       <c r="E154" s="4"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" s="2"/>
       <c r="B155" s="1" t="s">
         <v>11</v>
@@ -3468,14 +3374,14 @@
       <c r="D155" s="5"/>
       <c r="E155" s="4"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" s="2"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="5"/>
       <c r="E156" s="4"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" s="2"/>
       <c r="B157" s="1" t="s">
         <v>29</v>
@@ -3483,27 +3389,17 @@
       <c r="C157" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D157" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E157" s="7">
-        <v>44962</v>
-      </c>
-      <c r="F157" t="s">
-        <v>78</v>
-      </c>
-      <c r="G157" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D157" s="5"/>
+      <c r="E157" s="4"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" s="2"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="5"/>
       <c r="E158" s="4"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" s="2"/>
       <c r="B159" s="1" t="s">
         <v>30</v>
@@ -3514,7 +3410,7 @@
       <c r="D159" s="5"/>
       <c r="E159" s="4"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" s="2"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -3667,7 +3563,7 @@
       <c r="D176" s="5"/>
       <c r="E176" s="4"/>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A177" s="2"/>
       <c r="B177" s="1" t="s">
         <v>9</v>
@@ -3678,14 +3574,14 @@
       <c r="D177" s="5"/>
       <c r="E177" s="4"/>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A178" s="2"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="5"/>
       <c r="E178" s="4"/>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A179" s="2"/>
       <c r="B179" s="1" t="s">
         <v>10</v>
@@ -3696,14 +3592,14 @@
       <c r="D179" s="5"/>
       <c r="E179" s="4"/>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A180" s="2"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="5"/>
       <c r="E180" s="4"/>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A181" s="2"/>
       <c r="B181" s="1" t="s">
         <v>11</v>
@@ -3714,14 +3610,14 @@
       <c r="D181" s="5"/>
       <c r="E181" s="4"/>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A182" s="2"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182" s="5"/>
       <c r="E182" s="4"/>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A183" s="2"/>
       <c r="B183" s="1" t="s">
         <v>29</v>
@@ -3729,17 +3625,27 @@
       <c r="C183" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D183" s="5"/>
-      <c r="E183" s="4"/>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D183" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E183" s="7">
+        <v>44731</v>
+      </c>
+      <c r="F183" t="s">
+        <v>51</v>
+      </c>
+      <c r="G183" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A184" s="2"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184" s="5"/>
       <c r="E184" s="4"/>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A185" s="2"/>
       <c r="B185" s="1" t="s">
         <v>30</v>
@@ -3750,14 +3656,14 @@
       <c r="D185" s="5"/>
       <c r="E185" s="4"/>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A186" s="2"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="D186" s="5"/>
       <c r="E186" s="4"/>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A187" s="2"/>
       <c r="B187" s="1" t="s">
         <v>31</v>
@@ -3768,14 +3674,14 @@
       <c r="D187" s="5"/>
       <c r="E187" s="4"/>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A188" s="2"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="5"/>
       <c r="E188" s="4"/>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A189" s="2"/>
       <c r="B189" s="1" t="s">
         <v>47</v>
@@ -3784,7 +3690,7 @@
       <c r="D189" s="4"/>
       <c r="E189" s="4"/>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A190" s="2"/>
       <c r="B190" s="1" t="s">
         <v>0</v>
@@ -3793,7 +3699,7 @@
       <c r="D190" s="5"/>
       <c r="E190" s="4"/>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A191" s="2"/>
       <c r="B191" s="1" t="s">
         <v>13</v>
@@ -3804,7 +3710,7 @@
       <c r="D191" s="5"/>
       <c r="E191" s="4"/>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A192" s="2"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -4101,7 +4007,7 @@
       <c r="D224" s="5"/>
       <c r="E224" s="4"/>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A225" s="2"/>
       <c r="B225" s="1" t="s">
         <v>7</v>
@@ -4112,14 +4018,14 @@
       <c r="D225" s="5"/>
       <c r="E225" s="4"/>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A226" s="2"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
       <c r="D226" s="5"/>
       <c r="E226" s="4"/>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A227" s="2"/>
       <c r="B227" s="1" t="s">
         <v>8</v>
@@ -4130,14 +4036,14 @@
       <c r="D227" s="5"/>
       <c r="E227" s="4"/>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A228" s="2"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
       <c r="D228" s="5"/>
       <c r="E228" s="4"/>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A229" s="2"/>
       <c r="B229" s="1" t="s">
         <v>9</v>
@@ -4146,16 +4052,16 @@
         <v>35</v>
       </c>
       <c r="D229" s="5"/>
-      <c r="E229" s="4"/>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E229" s="7"/>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A230" s="2"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
       <c r="D230" s="5"/>
       <c r="E230" s="4"/>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A231" s="2"/>
       <c r="B231" s="1" t="s">
         <v>10</v>
@@ -4163,17 +4069,30 @@
       <c r="C231" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D231" s="5"/>
-      <c r="E231" s="4"/>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D231" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E231" s="7">
+        <v>45220</v>
+      </c>
+      <c r="F231" t="s">
+        <v>61</v>
+      </c>
+      <c r="G231" t="s">
+        <v>86</v>
+      </c>
+      <c r="H231" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A232" s="2"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
       <c r="D232" s="5"/>
       <c r="E232" s="4"/>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A233" s="2"/>
       <c r="B233" s="1" t="s">
         <v>11</v>
@@ -4182,16 +4101,15 @@
         <v>35</v>
       </c>
       <c r="D233" s="5"/>
-      <c r="E233" s="4"/>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E233" s="7"/>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A234" s="2"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
-      <c r="D234" s="5"/>
       <c r="E234" s="4"/>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A235" s="2"/>
       <c r="B235" s="1" t="s">
         <v>29</v>
@@ -4202,14 +4120,14 @@
       <c r="D235" s="5"/>
       <c r="E235" s="4"/>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A236" s="2"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
       <c r="D236" s="4"/>
       <c r="E236" s="4"/>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A237"/>
       <c r="B237" t="s">
         <v>37</v>
@@ -4220,14 +4138,14 @@
       <c r="D237" s="4"/>
       <c r="E237" s="4"/>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A238"/>
       <c r="B238"/>
       <c r="C238"/>
       <c r="D238" s="4"/>
       <c r="E238" s="4"/>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A239"/>
       <c r="B239" t="s">
         <v>31</v>
@@ -4245,16 +4163,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7517E2C-6F9F-784C-B257-599DEE4B6BE5}">
-  <dimension ref="A1:G231"/>
+  <dimension ref="A1:H231"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="117" workbookViewId="0">
-      <selection activeCell="G67" sqref="G67"/>
+    <sheetView topLeftCell="A79" zoomScale="117" workbookViewId="0">
+      <selection activeCell="H91" sqref="H91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="14.25" style="4" customWidth="1"/>
-    <col min="5" max="7" width="10.6640625" style="4"/>
+    <col min="4" max="4" width="19.58203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="4"/>
+    <col min="6" max="6" width="20.9140625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -4390,13 +4310,13 @@
       </c>
       <c r="D16" s="5"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="5"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="1" t="s">
         <v>10</v>
@@ -4406,13 +4326,13 @@
       </c>
       <c r="D18" s="5"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="1" t="s">
         <v>11</v>
@@ -4422,13 +4342,13 @@
       </c>
       <c r="D20" s="5"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="5"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
       <c r="B22" s="1" t="s">
         <v>29</v>
@@ -4438,13 +4358,13 @@
       </c>
       <c r="D22" s="5"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="5"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
       <c r="B24" s="1" t="s">
         <v>30</v>
@@ -4454,13 +4374,13 @@
       </c>
       <c r="D24" s="5"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="5"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
       <c r="B26" s="1" t="s">
         <v>31</v>
@@ -4468,27 +4388,17 @@
       <c r="C26" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E26" s="7">
-        <v>44729</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D26" s="5"/>
+      <c r="E26" s="7"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
       <c r="B27" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
       <c r="B28" s="1" t="s">
         <v>0</v>
@@ -4498,7 +4408,7 @@
       </c>
       <c r="D28" s="5"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="2"/>
       <c r="B29" s="1" t="s">
         <v>13</v>
@@ -4508,13 +4418,13 @@
       </c>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="5"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="2"/>
       <c r="B31" s="1" t="s">
         <v>14</v>
@@ -4524,13 +4434,13 @@
       </c>
       <c r="D31" s="5"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="2"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="5"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="2"/>
       <c r="B33" s="1" t="s">
         <v>5</v>
@@ -4540,13 +4450,13 @@
       </c>
       <c r="D33" s="5"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="2"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="5"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
       <c r="B35" s="1" t="s">
         <v>6</v>
@@ -4556,13 +4466,13 @@
       </c>
       <c r="D35" s="5"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="5"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="2"/>
       <c r="B37" s="1" t="s">
         <v>7</v>
@@ -4572,13 +4482,13 @@
       </c>
       <c r="D37" s="5"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="2"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="5"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="2"/>
       <c r="B39" s="1" t="s">
         <v>8</v>
@@ -4588,13 +4498,13 @@
       </c>
       <c r="D39" s="5"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="2"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="5"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="2"/>
       <c r="B41" s="1" t="s">
         <v>9</v>
@@ -4604,13 +4514,13 @@
       </c>
       <c r="D41" s="5"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="2"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="5"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="2"/>
       <c r="B43" s="1" t="s">
         <v>10</v>
@@ -4618,26 +4528,16 @@
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D43" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D43" s="5"/>
+      <c r="E43" s="7"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="2"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="5"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="2"/>
       <c r="B45" s="1" t="s">
         <v>11</v>
@@ -4647,13 +4547,13 @@
       </c>
       <c r="D45" s="5"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="2"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="5"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="2"/>
       <c r="B47" s="1" t="s">
         <v>12</v>
@@ -4662,19 +4562,22 @@
         <v>35</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="E47" s="7">
-        <v>45024</v>
+        <v>45220</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+      <c r="H47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="2"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -4809,7 +4712,7 @@
       <c r="C64" s="1"/>
       <c r="D64" s="5"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="2"/>
       <c r="B65" s="1" t="s">
         <v>8</v>
@@ -4819,13 +4722,13 @@
       </c>
       <c r="D65" s="5"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="2"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="5"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="2"/>
       <c r="B67" s="1" t="s">
         <v>9</v>
@@ -4833,26 +4736,15 @@
       <c r="C67" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D67" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="E67" s="7">
-        <v>45165</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G67" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D67" s="5"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="2"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="5"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="2"/>
       <c r="B69" s="1" t="s">
         <v>10</v>
@@ -4862,13 +4754,13 @@
       </c>
       <c r="D69" s="5"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="2"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="5"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="2"/>
       <c r="B71" s="1" t="s">
         <v>11</v>
@@ -4878,13 +4770,13 @@
       </c>
       <c r="D71" s="5"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="2"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="5"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="2"/>
       <c r="B73" s="1" t="s">
         <v>29</v>
@@ -4894,13 +4786,13 @@
       </c>
       <c r="D73" s="5"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="2"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="5"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="2"/>
       <c r="B75" s="1" t="s">
         <v>30</v>
@@ -4910,13 +4802,13 @@
       </c>
       <c r="D75" s="5"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="2"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="5"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="2"/>
       <c r="B77" s="1" t="s">
         <v>31</v>
@@ -4926,20 +4818,20 @@
       </c>
       <c r="D77" s="5"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="2"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="5"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="2"/>
       <c r="B79" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="2"/>
       <c r="B80" s="1" t="s">
         <v>0</v>
@@ -4949,7 +4841,7 @@
       </c>
       <c r="D80" s="5"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" s="2"/>
       <c r="B81" s="1" t="s">
         <v>13</v>
@@ -4959,13 +4851,13 @@
       </c>
       <c r="D81" s="5"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" s="2"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="5"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" s="2"/>
       <c r="B83" s="1" t="s">
         <v>14</v>
@@ -4975,13 +4867,13 @@
       </c>
       <c r="D83" s="5"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" s="2"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="5"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" s="2"/>
       <c r="B85" s="1" t="s">
         <v>5</v>
@@ -4991,13 +4883,13 @@
       </c>
       <c r="D85" s="5"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" s="2"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="5"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" s="2"/>
       <c r="B87" s="1" t="s">
         <v>6</v>
@@ -5007,13 +4899,13 @@
       </c>
       <c r="D87" s="5"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" s="2"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="5"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" s="2"/>
       <c r="B89" s="1" t="s">
         <v>7</v>
@@ -5023,13 +4915,13 @@
       </c>
       <c r="D89" s="5"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" s="2"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="5"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" s="2"/>
       <c r="B91" s="1" t="s">
         <v>8</v>
@@ -5038,25 +4930,28 @@
         <v>35</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="E91" s="7">
-        <v>45165</v>
+        <v>45220</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>108</v>
+        <v>61</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+      <c r="H91" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" s="2"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="5"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" s="2"/>
       <c r="B93" s="1" t="s">
         <v>9</v>
@@ -5066,13 +4961,13 @@
       </c>
       <c r="D93" s="5"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" s="2"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="5"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" s="2"/>
       <c r="B95" s="1" t="s">
         <v>10</v>
@@ -5082,13 +4977,13 @@
       </c>
       <c r="D95" s="5"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" s="2"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="5"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="2"/>
       <c r="B97" s="1" t="s">
         <v>11</v>
@@ -5098,13 +4993,13 @@
       </c>
       <c r="D97" s="5"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="2"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="5"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="2"/>
       <c r="B99" s="1" t="s">
         <v>15</v>
@@ -5114,36 +5009,37 @@
       </c>
       <c r="D99" s="5"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="2"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="5"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="2"/>
       <c r="B101" s="1" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D101" s="5"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E101" s="7"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="2"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="5"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="2"/>
       <c r="B103" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C103" s="1"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="2"/>
       <c r="B104" s="1" t="s">
         <v>0</v>
@@ -5153,7 +5049,7 @@
       </c>
       <c r="D104" s="5"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="2"/>
       <c r="B105" s="1" t="s">
         <v>13</v>
@@ -5163,13 +5059,13 @@
       </c>
       <c r="D105" s="5"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="2"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="5"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="2"/>
       <c r="B107" s="1" t="s">
         <v>14</v>
@@ -5179,13 +5075,13 @@
       </c>
       <c r="D107" s="5"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="2"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="5"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="2"/>
       <c r="B109" s="1" t="s">
         <v>5</v>
@@ -5195,13 +5091,13 @@
       </c>
       <c r="D109" s="5"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="2"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="5"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="2"/>
       <c r="B111" s="1" t="s">
         <v>6</v>
@@ -5211,13 +5107,13 @@
       </c>
       <c r="D111" s="5"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" s="2"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="5"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" s="2"/>
       <c r="B113" s="1" t="s">
         <v>7</v>
@@ -5227,13 +5123,13 @@
       </c>
       <c r="D113" s="5"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" s="2"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="5"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" s="2"/>
       <c r="B115" s="1" t="s">
         <v>8</v>
@@ -5243,13 +5139,13 @@
       </c>
       <c r="D115" s="5"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" s="2"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="5"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" s="2"/>
       <c r="B117" s="1" t="s">
         <v>9</v>
@@ -5259,13 +5155,13 @@
       </c>
       <c r="D117" s="5"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" s="2"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="5"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" s="2"/>
       <c r="B119" s="1" t="s">
         <v>10</v>
@@ -5275,13 +5171,13 @@
       </c>
       <c r="D119" s="5"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" s="2"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="5"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" s="2"/>
       <c r="B121" s="1" t="s">
         <v>11</v>
@@ -5291,13 +5187,13 @@
       </c>
       <c r="D121" s="5"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" s="2"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="5"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" s="2"/>
       <c r="B123" s="1" t="s">
         <v>29</v>
@@ -5306,14 +5202,15 @@
         <v>35</v>
       </c>
       <c r="D123" s="5"/>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E123" s="7"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" s="2"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="5"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" s="2"/>
       <c r="B125" s="1" t="s">
         <v>30</v>
@@ -5323,13 +5220,13 @@
       </c>
       <c r="D125" s="5"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" s="2"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="5"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" s="2"/>
       <c r="B127" s="1" t="s">
         <v>31</v>
@@ -5339,7 +5236,7 @@
       </c>
       <c r="D127" s="5"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" s="2"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -6171,10 +6068,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1264358B-42F3-BF44-A497-B70A8A3F8DB6}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -6326,7 +6223,7 @@
       <c r="D16" s="5"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="1" t="s">
         <v>10</v>
@@ -6337,14 +6234,14 @@
       <c r="D17" s="5"/>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="5"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="1" t="s">
         <v>11</v>
@@ -6355,14 +6252,14 @@
       <c r="D19" s="5"/>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="5"/>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="1" t="s">
         <v>29</v>
@@ -6373,14 +6270,14 @@
       <c r="D21" s="5"/>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="5"/>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
       <c r="B23" s="1" t="s">
         <v>30</v>
@@ -6391,40 +6288,32 @@
       <c r="D23" s="5"/>
       <c r="E23" s="4"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="C27" t="s">
         <v>35</v>
       </c>
       <c r="D27" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="E27" s="8">
-        <v>45024</v>
+        <v>45220</v>
       </c>
       <c r="F27" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="G27" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B29" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" t="s">
-        <v>61</v>
+        <v>75</v>
+      </c>
+      <c r="H27" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -6436,8 +6325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5966D34-AFDC-8D46-87F5-1A179AC4B902}">
   <dimension ref="A1:G86"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -6592,18 +6481,10 @@
       <c r="C14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E14" s="7">
-        <v>44345</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>98</v>
-      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
@@ -7952,14 +7833,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E22797B1-D157-4F23-BC29-DEA3C11849AE}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="13.25" customWidth="1"/>
-    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="6" max="6" width="13.25" customWidth="1"/>
+    <col min="7" max="7" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -7978,12 +7859,15 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>34</v>
       </c>
     </row>
@@ -7995,6 +7879,9 @@
       <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="D3" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
@@ -8002,11 +7889,13 @@
       <c r="C4" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
@@ -8016,11 +7905,13 @@
       <c r="C6" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
@@ -8030,11 +7921,13 @@
       <c r="C8" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
@@ -8044,11 +7937,13 @@
       <c r="C10" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
+      <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
@@ -8058,11 +7953,13 @@
       <c r="C12" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
+      <c r="D13" s="5"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
@@ -8072,11 +7969,13 @@
       <c r="C14" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="D14" s="5"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
+      <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
@@ -8086,25 +7985,15 @@
       <c r="C16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D16" t="s">
-        <v>99</v>
-      </c>
-      <c r="E16" s="8">
-        <v>44877</v>
-      </c>
-      <c r="F16" t="s">
-        <v>100</v>
-      </c>
-      <c r="G16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="1" t="s">
         <v>10</v>
@@ -8112,13 +8001,15 @@
       <c r="C18" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="1" t="s">
         <v>11</v>
@@ -8126,25 +8017,15 @@
       <c r="C20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D20" t="s">
-        <v>99</v>
-      </c>
-      <c r="E20" s="8">
-        <v>44836</v>
-      </c>
-      <c r="F20" t="s">
-        <v>89</v>
-      </c>
-      <c r="G20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
       <c r="B22" s="1" t="s">
         <v>29</v>
@@ -8152,25 +8033,15 @@
       <c r="C22" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D22" t="s">
-        <v>105</v>
-      </c>
-      <c r="E22" s="8">
-        <v>44962</v>
-      </c>
-      <c r="F22" t="s">
-        <v>106</v>
-      </c>
-      <c r="G22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
       <c r="B24" s="1" t="s">
         <v>30</v>
@@ -8178,6 +8049,7 @@
       <c r="C24" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="D24" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/downloads/TESTED-STRICT-CURL.xlsx
+++ b/public/downloads/TESTED-STRICT-CURL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b791772ed41bd66b/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b791772ed41bd66b/Desktop/2023 ROLLING  RECORDS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="105" documentId="8_{D3FFD2DE-F7E8-4864-BD78-B935C1BCEDB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F0FD246-03E2-432C-BB32-2FA3C79F5D5F}"/>
+  <xr:revisionPtr revIDLastSave="756" documentId="8_{549BB9C3-8073-4280-B78C-D5FDAA0537B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{523284B2-13CB-420B-9209-556C21636BE1}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4154235A-A9CC-3C49-98D1-D24EB0BE76D8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{4154235A-A9CC-3C49-98D1-D24EB0BE76D8}"/>
   </bookViews>
   <sheets>
     <sheet name="MEN OPEN" sheetId="5" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="113">
   <si>
     <t>Weight</t>
   </si>
@@ -192,142 +192,196 @@
     <t xml:space="preserve">MASTER 80+ </t>
   </si>
   <si>
-    <t>PETER BATTLE</t>
-  </si>
-  <si>
-    <t>JOHN GRIFFITHS</t>
+    <t>NICOLA ELDING</t>
+  </si>
+  <si>
+    <t>BRITISH CHAMPIONSHIP</t>
+  </si>
+  <si>
+    <t>30.0KG</t>
+  </si>
+  <si>
+    <t>SALLY LACK</t>
+  </si>
+  <si>
+    <t>37.5KG</t>
+  </si>
+  <si>
+    <t>LUCY MOORE</t>
+  </si>
+  <si>
+    <t>35.0KG</t>
+  </si>
+  <si>
+    <t>STRICT CYRL</t>
+  </si>
+  <si>
+    <t>KELLY BROWN</t>
+  </si>
+  <si>
+    <t>125KG</t>
+  </si>
+  <si>
+    <t>140KG</t>
+  </si>
+  <si>
+    <t>140+KG</t>
+  </si>
+  <si>
+    <t>STRICT  CURL</t>
+  </si>
+  <si>
+    <t>CHARLIE SIMON</t>
+  </si>
+  <si>
+    <t>45KG</t>
+  </si>
+  <si>
+    <t>NUMAAN RAFIQUE</t>
+  </si>
+  <si>
+    <t>MATHEW TAYLOR</t>
+  </si>
+  <si>
+    <t>55.0KG</t>
+  </si>
+  <si>
+    <t>IMRAN KHAN</t>
+  </si>
+  <si>
+    <t>60.0KG</t>
+  </si>
+  <si>
+    <t>110kg</t>
+  </si>
+  <si>
+    <t>STICT CURL</t>
+  </si>
+  <si>
+    <t>PAUL BAINES</t>
+  </si>
+  <si>
+    <t>70.0KG</t>
+  </si>
+  <si>
+    <t>JONATHAN CHIMA MAXWELL</t>
+  </si>
+  <si>
+    <t>94.0KG</t>
+  </si>
+  <si>
+    <t>JAMIE CHALLENGER</t>
+  </si>
+  <si>
+    <t>50.0KG</t>
+  </si>
+  <si>
+    <t>JAVENO MCLEAN</t>
+  </si>
+  <si>
+    <t>MONTY CROWN</t>
+  </si>
+  <si>
+    <t>SHAUN JARRETT</t>
   </si>
   <si>
     <t>EUR &amp; COM CHAMPIONSHIPS</t>
   </si>
   <si>
+    <t>82.5KG</t>
+  </si>
+  <si>
+    <t>57.5KG</t>
+  </si>
+  <si>
+    <t>DAVID MANNERING</t>
+  </si>
+  <si>
+    <t>BPF RECORD BREAKERS</t>
+  </si>
+  <si>
+    <t>40.0KG</t>
+  </si>
+  <si>
+    <t>MATTHEW BEVAN</t>
+  </si>
+  <si>
     <t>45.0KG</t>
   </si>
   <si>
-    <t>125KG</t>
-  </si>
-  <si>
-    <t>140KG</t>
+    <t>ROB CLAY</t>
+  </si>
+  <si>
+    <t>MAYHEM IN BOSTON</t>
+  </si>
+  <si>
+    <t>72.5KG</t>
+  </si>
+  <si>
+    <t>MAYHHEM IN BOSTON</t>
   </si>
   <si>
     <t xml:space="preserve">OPEN WOMEN </t>
   </si>
   <si>
-    <t>110kg</t>
-  </si>
-  <si>
-    <t>CALEB WHITE</t>
-  </si>
-  <si>
-    <t>77.5KG</t>
-  </si>
-  <si>
-    <t>DAVID WARMUZ</t>
-  </si>
-  <si>
-    <t>75KG</t>
-  </si>
-  <si>
-    <t>WORLD CUP</t>
-  </si>
-  <si>
-    <t>POL</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MARCIN MARSZALEK</t>
-  </si>
-  <si>
-    <t>70.0KG</t>
-  </si>
-  <si>
-    <t>140KG+</t>
-  </si>
-  <si>
-    <t>IMRAN KHAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.0KG </t>
-  </si>
-  <si>
-    <t>GBR</t>
-  </si>
-  <si>
-    <t>MATHEW TAYLOR</t>
-  </si>
-  <si>
-    <t>WOURLD CUP</t>
-  </si>
-  <si>
-    <t>57.5KG</t>
-  </si>
-  <si>
-    <t>125.0KG</t>
-  </si>
-  <si>
-    <t>140.0KG</t>
-  </si>
-  <si>
-    <t>CHARLIE SIMOON</t>
-  </si>
-  <si>
-    <t>52.5KG</t>
-  </si>
-  <si>
-    <t>ROZA WAGNER</t>
-  </si>
-  <si>
-    <t>47.5KG</t>
-  </si>
-  <si>
-    <t>130.0KG</t>
-  </si>
-  <si>
-    <t>LUKASZ WARMUZ</t>
-  </si>
-  <si>
-    <t>82.5KG</t>
-  </si>
-  <si>
-    <t>JASON ROBERTS</t>
-  </si>
-  <si>
-    <t>21/10/2023`</t>
-  </si>
-  <si>
-    <t>HAWAII</t>
-  </si>
-  <si>
-    <t>JONATHAN CHIMA MAXWELL</t>
-  </si>
-  <si>
-    <t>100.0KG</t>
-  </si>
-  <si>
-    <t>38.5KG</t>
-  </si>
-  <si>
-    <t>SAL LACK</t>
-  </si>
-  <si>
-    <t>27.5KG</t>
-  </si>
-  <si>
-    <t>NICOLA ELDING</t>
-  </si>
-  <si>
-    <t>30.0KG</t>
-  </si>
-  <si>
-    <t>kalil zaky</t>
-  </si>
-  <si>
-    <t>wourld cup</t>
-  </si>
-  <si>
-    <t>70.0kg</t>
-  </si>
-  <si>
-    <t>USA</t>
+    <t>JAMIE STUBBS</t>
+  </si>
+  <si>
+    <t>EUR &amp; COM</t>
+  </si>
+  <si>
+    <t>28.5KG</t>
+  </si>
+  <si>
+    <t>IZZY COTTON</t>
+  </si>
+  <si>
+    <t>BPF ACADEMY</t>
+  </si>
+  <si>
+    <t>20.0KG</t>
+  </si>
+  <si>
+    <t>HEATHER SWAIN</t>
+  </si>
+  <si>
+    <t>RECORD BREAKERS</t>
+  </si>
+  <si>
+    <t>ROZ GRIFFITHS</t>
+  </si>
+  <si>
+    <t>04/09/202</t>
+  </si>
+  <si>
+    <t>MANSFIELD MANIER</t>
+  </si>
+  <si>
+    <t>25.0KG</t>
+  </si>
+  <si>
+    <t>HOLLIE DOUGLESS</t>
+  </si>
+  <si>
+    <t>THE MONTY CROWN</t>
+  </si>
+  <si>
+    <t>DONNA SMITH</t>
+  </si>
+  <si>
+    <t>women of iron</t>
+  </si>
+  <si>
+    <t>31.0KG</t>
+  </si>
+  <si>
+    <t>sue davies</t>
+  </si>
+  <si>
+    <t>47.5kg</t>
+  </si>
+  <si>
+    <t>37.5kg</t>
   </si>
 </sst>
 </file>
@@ -415,10 +469,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -718,10 +768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{306999F4-8918-254E-B53D-F64ABC5BF343}">
-  <dimension ref="A1:H124"/>
+  <dimension ref="A1:G124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="D15" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -729,17 +779,14 @@
     <col min="1" max="1" width="20.4140625" style="4" customWidth="1"/>
     <col min="2" max="2" width="20.58203125" style="4" customWidth="1"/>
     <col min="3" max="3" width="18.6640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="14.25" customWidth="1"/>
-    <col min="5" max="5" width="12.25" customWidth="1"/>
-    <col min="6" max="6" width="21.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1"/>
       <c r="B1"/>
       <c r="C1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -751,7 +798,7 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -760,7 +807,7 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="1" t="s">
         <v>13</v>
@@ -779,7 +826,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
@@ -788,14 +835,14 @@
       <c r="D5" s="5"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="5"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="1" t="s">
         <v>14</v>
@@ -806,14 +853,14 @@
       <c r="D7" s="5"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="5"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="1" t="s">
         <v>5</v>
@@ -824,14 +871,14 @@
       <c r="D9" s="5"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="5"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="1" t="s">
         <v>6</v>
@@ -842,14 +889,14 @@
       <c r="D11" s="5"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="5"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="1" t="s">
         <v>7</v>
@@ -857,30 +904,17 @@
       <c r="C13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E13" s="7">
-        <v>45220</v>
-      </c>
-      <c r="F13" t="s">
-        <v>92</v>
-      </c>
-      <c r="G13" t="s">
-        <v>93</v>
-      </c>
-      <c r="H13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D13" s="5"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="5"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="1" t="s">
         <v>8</v>
@@ -891,14 +925,14 @@
       <c r="D15" s="5"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="5"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="1" t="s">
         <v>9</v>
@@ -907,29 +941,26 @@
         <v>35</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E17" s="7">
-        <v>45220</v>
+        <v>45024</v>
       </c>
       <c r="F17" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G17" t="s">
-        <v>71</v>
-      </c>
-      <c r="H17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="5"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="1" t="s">
         <v>10</v>
@@ -937,17 +968,27 @@
       <c r="C19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D19" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="7">
+        <v>44695</v>
+      </c>
+      <c r="F19" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="5"/>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="1" t="s">
         <v>11</v>
@@ -955,17 +996,27 @@
       <c r="C21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="7"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D21" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="7">
+        <v>44962</v>
+      </c>
+      <c r="F21" t="s">
+        <v>78</v>
+      </c>
+      <c r="G21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="5"/>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
       <c r="B23" s="1" t="s">
         <v>29</v>
@@ -974,16 +1025,16 @@
         <v>35</v>
       </c>
       <c r="D23" s="5"/>
-      <c r="E23" s="7"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="5"/>
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
       <c r="B25" s="1" t="s">
         <v>30</v>
@@ -992,98 +1043,100 @@
         <v>35</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="E25" s="7">
-        <v>45220</v>
+        <v>44731</v>
       </c>
       <c r="F25" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="G25" t="s">
-        <v>58</v>
-      </c>
-      <c r="H25" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="E27" s="8">
-        <v>45220</v>
-      </c>
-      <c r="F27" t="s">
-        <v>61</v>
+        <v>45024</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E29" s="8">
-        <v>45220</v>
-      </c>
-      <c r="F29" t="s">
-        <v>61</v>
+        <v>44962</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D31" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" s="8">
+        <v>45024</v>
+      </c>
+      <c r="F31" t="s">
+        <v>50</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1645,35 +1698,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7186C1C6-534A-8649-9BC5-24AFC98A5F9D}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="18" style="4" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="28.33203125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="13.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.25" style="4" customWidth="1"/>
+    <col min="5" max="5" width="15.58203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="23.33203125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="27" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="B1" s="1"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
         <v>13</v>
@@ -1694,7 +1747,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
@@ -1703,14 +1756,14 @@
       <c r="D4" s="5"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="5"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
         <v>14</v>
@@ -1721,14 +1774,14 @@
       <c r="D6" s="5"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="5"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
@@ -1739,14 +1792,14 @@
       <c r="D8" s="5"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="5"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="1" t="s">
         <v>6</v>
@@ -1754,17 +1807,27 @@
       <c r="C10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D10" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" s="7">
+        <v>44729</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="5"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="1" t="s">
         <v>7</v>
@@ -1775,14 +1838,14 @@
       <c r="D12" s="5"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="5"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="1" t="s">
         <v>8</v>
@@ -1790,30 +1853,17 @@
       <c r="C14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E14" s="7">
-        <v>45220</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D14" s="5"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="5"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="1" t="s">
         <v>9</v>
@@ -1822,17 +1872,16 @@
         <v>35</v>
       </c>
       <c r="D16" s="5"/>
-      <c r="E16" s="7"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="5"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="1" t="s">
         <v>10</v>
@@ -1841,17 +1890,16 @@
         <v>35</v>
       </c>
       <c r="D18" s="5"/>
-      <c r="E18" s="7"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="5"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="1" t="s">
         <v>11</v>
@@ -1862,14 +1910,14 @@
       <c r="D20" s="5"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="5"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
       <c r="B22" s="1" t="s">
         <v>29</v>
@@ -1877,17 +1925,27 @@
       <c r="C22" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D22" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="7">
+        <v>45165</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="5"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
       <c r="B24" s="1" t="s">
         <v>30</v>
@@ -1897,6 +1955,26 @@
       </c>
       <c r="D24" s="5"/>
       <c r="F24" s="4"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="7">
+        <v>44877</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>85</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1905,18 +1983,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C68180E9-570C-BE40-A2EC-46381CEBEE35}">
-  <dimension ref="A1:H239"/>
+  <dimension ref="A1:G239"/>
   <sheetViews>
-    <sheetView topLeftCell="B215" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H231" sqref="H231"/>
+    <sheetView topLeftCell="A68" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G107" sqref="G107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="10.6640625" style="4"/>
-    <col min="3" max="3" width="16" style="4" customWidth="1"/>
-    <col min="4" max="4" width="20.4140625" customWidth="1"/>
-    <col min="6" max="6" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="10.6640625" style="4"/>
+    <col min="4" max="4" width="19.75" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -2069,14 +2146,14 @@
       <c r="D16" s="5"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="5"/>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="1" t="s">
         <v>10</v>
@@ -2087,14 +2164,14 @@
       <c r="D18" s="5"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="5"/>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="1" t="s">
         <v>11</v>
@@ -2102,30 +2179,17 @@
       <c r="C20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20" s="7">
-        <v>45220</v>
-      </c>
-      <c r="F20" t="s">
-        <v>61</v>
-      </c>
-      <c r="G20" t="s">
-        <v>64</v>
-      </c>
-      <c r="H20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D20" s="5"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="5"/>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
       <c r="B22" s="1" t="s">
         <v>29</v>
@@ -2134,16 +2198,16 @@
         <v>35</v>
       </c>
       <c r="D22" s="5"/>
-      <c r="E22" s="7"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="5"/>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
       <c r="B24" s="1" t="s">
         <v>30</v>
@@ -2151,590 +2215,592 @@
       <c r="C24" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E24" s="7">
-        <v>45220</v>
-      </c>
-      <c r="F24" t="s">
-        <v>61</v>
-      </c>
-      <c r="G24" t="s">
-        <v>60</v>
-      </c>
-      <c r="H24" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D24" s="5"/>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="5"/>
       <c r="E25" s="4"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
       <c r="B26" s="1" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E26" s="7">
-        <v>45220</v>
-      </c>
-      <c r="F26" t="s">
-        <v>61</v>
-      </c>
-      <c r="G26" t="s">
-        <v>80</v>
-      </c>
-      <c r="H26" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D26" s="5"/>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
-      <c r="B27" s="1"/>
+      <c r="B27" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="C27" s="1"/>
-      <c r="D27" s="5"/>
+      <c r="D27" s="4"/>
       <c r="E27" s="4"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
       <c r="B28" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C28" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D28" s="5"/>
       <c r="E28" s="4"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="2"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
+      <c r="B29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="D29" s="5"/>
       <c r="E29" s="4"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="5"/>
       <c r="E30" s="4"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="2"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
+      <c r="B31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="D31" s="5"/>
       <c r="E31" s="4"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="2"/>
-      <c r="B32" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="B32" s="1"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="4"/>
+      <c r="D32" s="5"/>
       <c r="E32" s="4"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="2"/>
       <c r="B33" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="4"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="2"/>
-      <c r="B34" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
       <c r="D34" s="5"/>
       <c r="E34" s="4"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
+      <c r="B35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="D35" s="5"/>
       <c r="E35" s="4"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
-      <c r="B36" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
       <c r="D36" s="5"/>
       <c r="E36" s="4"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="2"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
+      <c r="B37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="D37" s="5"/>
       <c r="E37" s="4"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="2"/>
-      <c r="B38" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
       <c r="D38" s="5"/>
       <c r="E38" s="4"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="2"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
+      <c r="B39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="D39" s="5"/>
       <c r="E39" s="4"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="2"/>
-      <c r="B40" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
       <c r="D40" s="5"/>
       <c r="E40" s="4"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="2"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
+      <c r="B41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="D41" s="5"/>
       <c r="E41" s="4"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="2"/>
-      <c r="B42" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
       <c r="D42" s="5"/>
       <c r="E42" s="4"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="2"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
+      <c r="B43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="D43" s="5"/>
       <c r="E43" s="4"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="2"/>
-      <c r="B44" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
       <c r="D44" s="5"/>
       <c r="E44" s="4"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="2"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
+      <c r="B45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="D45" s="5"/>
       <c r="E45" s="4"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="2"/>
-      <c r="B46" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
       <c r="D46" s="5"/>
-      <c r="E46" s="4"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="2"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="4"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E47" s="8">
+        <v>45024</v>
+      </c>
+      <c r="F47" t="s">
+        <v>50</v>
+      </c>
+      <c r="G47" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="2"/>
-      <c r="B48" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
       <c r="D48" s="5"/>
       <c r="E48" s="4"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="2"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
+      <c r="B49" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="D49" s="5"/>
       <c r="E49" s="4"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="2"/>
-      <c r="B50" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
       <c r="D50" s="5"/>
       <c r="E50" s="4"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="2"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
+      <c r="B51" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="D51" s="5"/>
       <c r="E51" s="4"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="2"/>
-      <c r="B52" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
       <c r="D52" s="5"/>
       <c r="E52" s="4"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="2"/>
-      <c r="B53" s="1"/>
+      <c r="B53" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="C53" s="1"/>
-      <c r="D53" s="5"/>
+      <c r="D53" s="4"/>
       <c r="E53" s="4"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="2"/>
       <c r="B54" s="1" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="D54" s="5"/>
       <c r="E54" s="4"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="2"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
+      <c r="B55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="D55" s="5"/>
       <c r="E55" s="4"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="2"/>
-      <c r="B56" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
       <c r="D56" s="5"/>
       <c r="E56" s="4"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="2"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
+      <c r="B57" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="D57" s="5"/>
       <c r="E57" s="4"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="2"/>
-      <c r="B58" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="B58" s="1"/>
       <c r="C58" s="1"/>
-      <c r="D58" s="4"/>
+      <c r="D58" s="5"/>
       <c r="E58" s="4"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="2"/>
       <c r="B59" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="D59" s="5"/>
       <c r="E59" s="4"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="2"/>
-      <c r="B60" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
       <c r="D60" s="5"/>
       <c r="E60" s="4"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="2"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
+      <c r="B61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="D61" s="5"/>
       <c r="E61" s="4"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="2"/>
-      <c r="B62" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
       <c r="D62" s="5"/>
       <c r="E62" s="4"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="2"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
+      <c r="B63" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="D63" s="5"/>
       <c r="E63" s="4"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="2"/>
-      <c r="B64" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
       <c r="D64" s="5"/>
       <c r="E64" s="4"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="2"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
+      <c r="B65" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="D65" s="5"/>
       <c r="E65" s="4"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="2"/>
-      <c r="B66" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
       <c r="D66" s="5"/>
       <c r="E66" s="4"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="2"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
+      <c r="B67" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="D67" s="5"/>
       <c r="E67" s="4"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="2"/>
-      <c r="B68" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
       <c r="D68" s="5"/>
       <c r="E68" s="4"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="2"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
+      <c r="B69" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="D69" s="5"/>
       <c r="E69" s="4"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="2"/>
-      <c r="B70" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
       <c r="D70" s="5"/>
       <c r="E70" s="4"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" s="2"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
+      <c r="B71" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="D71" s="5"/>
       <c r="E71" s="4"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="2"/>
-      <c r="B72" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
       <c r="D72" s="5"/>
       <c r="E72" s="4"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="2"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="4"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B73" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E73" s="7">
+        <v>44962</v>
+      </c>
+      <c r="F73" t="s">
+        <v>78</v>
+      </c>
+      <c r="G73" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="2"/>
-      <c r="B74" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F74" t="s">
-        <v>61</v>
-      </c>
-      <c r="G74" t="s">
-        <v>52</v>
-      </c>
-      <c r="H74" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="4"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="2"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
+      <c r="B75" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="D75" s="5"/>
       <c r="E75" s="4"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" s="2"/>
-      <c r="B76" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
       <c r="D76" s="5"/>
       <c r="E76" s="4"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" s="2"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
+      <c r="B77" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="D77" s="5"/>
       <c r="E77" s="4"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" s="2"/>
-      <c r="B78" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
       <c r="D78" s="5"/>
       <c r="E78" s="4"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" s="2"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="4"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B79" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E79" s="7">
+        <v>44660</v>
+      </c>
+      <c r="F79" t="s">
+        <v>78</v>
+      </c>
+      <c r="G79" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="2"/>
-      <c r="B80" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
       <c r="D80" s="5"/>
       <c r="E80" s="4"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="2"/>
-      <c r="B81" s="1"/>
+      <c r="B81" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="C81" s="1"/>
-      <c r="D81" s="5"/>
+      <c r="D81" s="4"/>
       <c r="E81" s="4"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="2"/>
       <c r="B82" s="1" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="D82" s="5"/>
-      <c r="E82" s="7"/>
+      <c r="E82" s="4"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="2"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
+      <c r="B83" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="D83" s="5"/>
       <c r="E83" s="4"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="2"/>
-      <c r="B84" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
       <c r="D84" s="5"/>
-      <c r="E84" s="7"/>
+      <c r="E84" s="4"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="2"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
+      <c r="B85" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="D85" s="5"/>
       <c r="E85" s="4"/>
     </row>
@@ -2747,28 +2813,26 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="2"/>
-      <c r="B87" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C87" s="1"/>
-      <c r="D87" s="4"/>
+      <c r="B87" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D87" s="5"/>
       <c r="E87" s="4"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="2"/>
-      <c r="B88" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
       <c r="D88" s="5"/>
       <c r="E88" s="4"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="2"/>
       <c r="B89" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>35</v>
@@ -2786,7 +2850,7 @@
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="2"/>
       <c r="B91" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>35</v>
@@ -2804,7 +2868,7 @@
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="2"/>
       <c r="B93" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>35</v>
@@ -2822,7 +2886,7 @@
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="2"/>
       <c r="B95" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>35</v>
@@ -2837,10 +2901,10 @@
       <c r="D96" s="5"/>
       <c r="E96" s="4"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" s="2"/>
       <c r="B97" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>35</v>
@@ -2848,17 +2912,17 @@
       <c r="D97" s="5"/>
       <c r="E97" s="4"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" s="2"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="5"/>
       <c r="E98" s="4"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" s="2"/>
       <c r="B99" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>35</v>
@@ -2866,17 +2930,17 @@
       <c r="D99" s="5"/>
       <c r="E99" s="4"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" s="2"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="5"/>
       <c r="E100" s="4"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" s="2"/>
       <c r="B101" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>35</v>
@@ -2884,17 +2948,17 @@
       <c r="D101" s="5"/>
       <c r="E101" s="4"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" s="2"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="5"/>
       <c r="E102" s="4"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" s="2"/>
       <c r="B103" s="1" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>35</v>
@@ -2902,68 +2966,88 @@
       <c r="D103" s="5"/>
       <c r="E103" s="4"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" s="2"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="5"/>
       <c r="E104" s="4"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" s="2"/>
       <c r="B105" s="1" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="D105" s="5"/>
-      <c r="E105" s="7"/>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E105" s="4"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" s="2"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="5"/>
       <c r="E106" s="4"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" s="2"/>
       <c r="B107" s="1" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D107" s="5"/>
-      <c r="E107" s="4"/>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E107" s="7">
+        <v>44660</v>
+      </c>
+      <c r="F107" t="s">
+        <v>91</v>
+      </c>
+      <c r="G107" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" s="2"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="5"/>
       <c r="E108" s="4"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" s="2"/>
       <c r="B109" s="1" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D109" s="5"/>
-      <c r="E109" s="4"/>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E109" s="7">
+        <v>44611</v>
+      </c>
+      <c r="F109" t="s">
+        <v>80</v>
+      </c>
+      <c r="G109" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" s="2"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="5"/>
       <c r="E110" s="4"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" s="2"/>
       <c r="B111" s="1" t="s">
         <v>44</v>
@@ -2972,7 +3056,7 @@
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" s="2"/>
       <c r="B112" s="1" t="s">
         <v>0</v>
@@ -2983,7 +3067,7 @@
       <c r="D112" s="5"/>
       <c r="E112" s="4"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" s="2"/>
       <c r="B113" s="1" t="s">
         <v>13</v>
@@ -2994,14 +3078,14 @@
       <c r="D113" s="5"/>
       <c r="E113" s="4"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" s="2"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="5"/>
       <c r="E114" s="4"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" s="2"/>
       <c r="B115" s="1" t="s">
         <v>14</v>
@@ -3012,14 +3096,14 @@
       <c r="D115" s="5"/>
       <c r="E115" s="4"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" s="2"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="5"/>
       <c r="E116" s="4"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" s="2"/>
       <c r="B117" s="1" t="s">
         <v>5</v>
@@ -3030,14 +3114,14 @@
       <c r="D117" s="5"/>
       <c r="E117" s="4"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118" s="2"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="5"/>
       <c r="E118" s="4"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119" s="2"/>
       <c r="B119" s="1" t="s">
         <v>6</v>
@@ -3048,14 +3132,14 @@
       <c r="D119" s="5"/>
       <c r="E119" s="4"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" s="2"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="5"/>
       <c r="E120" s="4"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" s="2"/>
       <c r="B121" s="1" t="s">
         <v>7</v>
@@ -3066,14 +3150,14 @@
       <c r="D121" s="5"/>
       <c r="E121" s="4"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122" s="2"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="5"/>
       <c r="E122" s="4"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" s="2"/>
       <c r="B123" s="1" t="s">
         <v>8</v>
@@ -3084,14 +3168,14 @@
       <c r="D123" s="5"/>
       <c r="E123" s="4"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" s="2"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="5"/>
       <c r="E124" s="4"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" s="2"/>
       <c r="B125" s="1" t="s">
         <v>9</v>
@@ -3099,17 +3183,27 @@
       <c r="C125" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D125" s="5"/>
-      <c r="E125" s="4"/>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D125" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E125" s="7">
+        <v>44877</v>
+      </c>
+      <c r="F125" t="s">
+        <v>84</v>
+      </c>
+      <c r="G125" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126" s="2"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="5"/>
       <c r="E126" s="4"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127" s="2"/>
       <c r="B127" s="1" t="s">
         <v>10</v>
@@ -3120,7 +3214,7 @@
       <c r="D127" s="5"/>
       <c r="E127" s="4"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" s="2"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -3273,7 +3367,7 @@
       <c r="D144" s="5"/>
       <c r="E144" s="4"/>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A145" s="2"/>
       <c r="B145" s="1" t="s">
         <v>6</v>
@@ -3284,14 +3378,14 @@
       <c r="D145" s="5"/>
       <c r="E145" s="4"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A146" s="2"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="5"/>
       <c r="E146" s="4"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A147" s="2"/>
       <c r="B147" s="1" t="s">
         <v>7</v>
@@ -3302,14 +3396,14 @@
       <c r="D147" s="5"/>
       <c r="E147" s="4"/>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A148" s="2"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="5"/>
       <c r="E148" s="4"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A149" s="2"/>
       <c r="B149" s="1" t="s">
         <v>8</v>
@@ -3320,14 +3414,14 @@
       <c r="D149" s="5"/>
       <c r="E149" s="4"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A150" s="2"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="5"/>
       <c r="E150" s="4"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A151" s="2"/>
       <c r="B151" s="1" t="s">
         <v>9</v>
@@ -3338,14 +3432,14 @@
       <c r="D151" s="5"/>
       <c r="E151" s="4"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A152" s="2"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="5"/>
       <c r="E152" s="4"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A153" s="2"/>
       <c r="B153" s="1" t="s">
         <v>10</v>
@@ -3356,14 +3450,14 @@
       <c r="D153" s="5"/>
       <c r="E153" s="4"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A154" s="2"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="5"/>
       <c r="E154" s="4"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A155" s="2"/>
       <c r="B155" s="1" t="s">
         <v>11</v>
@@ -3374,14 +3468,14 @@
       <c r="D155" s="5"/>
       <c r="E155" s="4"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A156" s="2"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="5"/>
       <c r="E156" s="4"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A157" s="2"/>
       <c r="B157" s="1" t="s">
         <v>29</v>
@@ -3389,17 +3483,27 @@
       <c r="C157" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D157" s="5"/>
-      <c r="E157" s="4"/>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D157" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E157" s="7">
+        <v>44962</v>
+      </c>
+      <c r="F157" t="s">
+        <v>78</v>
+      </c>
+      <c r="G157" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A158" s="2"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="5"/>
       <c r="E158" s="4"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A159" s="2"/>
       <c r="B159" s="1" t="s">
         <v>30</v>
@@ -3410,7 +3514,7 @@
       <c r="D159" s="5"/>
       <c r="E159" s="4"/>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A160" s="2"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -3563,7 +3667,7 @@
       <c r="D176" s="5"/>
       <c r="E176" s="4"/>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177" s="2"/>
       <c r="B177" s="1" t="s">
         <v>9</v>
@@ -3574,14 +3678,14 @@
       <c r="D177" s="5"/>
       <c r="E177" s="4"/>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178" s="2"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="5"/>
       <c r="E178" s="4"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179" s="2"/>
       <c r="B179" s="1" t="s">
         <v>10</v>
@@ -3592,14 +3696,14 @@
       <c r="D179" s="5"/>
       <c r="E179" s="4"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180" s="2"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="5"/>
       <c r="E180" s="4"/>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A181" s="2"/>
       <c r="B181" s="1" t="s">
         <v>11</v>
@@ -3610,14 +3714,14 @@
       <c r="D181" s="5"/>
       <c r="E181" s="4"/>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A182" s="2"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182" s="5"/>
       <c r="E182" s="4"/>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A183" s="2"/>
       <c r="B183" s="1" t="s">
         <v>29</v>
@@ -3625,27 +3729,17 @@
       <c r="C183" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D183" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E183" s="7">
-        <v>44731</v>
-      </c>
-      <c r="F183" t="s">
-        <v>51</v>
-      </c>
-      <c r="G183" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D183" s="5"/>
+      <c r="E183" s="4"/>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A184" s="2"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184" s="5"/>
       <c r="E184" s="4"/>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A185" s="2"/>
       <c r="B185" s="1" t="s">
         <v>30</v>
@@ -3656,14 +3750,14 @@
       <c r="D185" s="5"/>
       <c r="E185" s="4"/>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A186" s="2"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="D186" s="5"/>
       <c r="E186" s="4"/>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A187" s="2"/>
       <c r="B187" s="1" t="s">
         <v>31</v>
@@ -3674,14 +3768,14 @@
       <c r="D187" s="5"/>
       <c r="E187" s="4"/>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A188" s="2"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="5"/>
       <c r="E188" s="4"/>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A189" s="2"/>
       <c r="B189" s="1" t="s">
         <v>47</v>
@@ -3690,7 +3784,7 @@
       <c r="D189" s="4"/>
       <c r="E189" s="4"/>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A190" s="2"/>
       <c r="B190" s="1" t="s">
         <v>0</v>
@@ -3699,7 +3793,7 @@
       <c r="D190" s="5"/>
       <c r="E190" s="4"/>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A191" s="2"/>
       <c r="B191" s="1" t="s">
         <v>13</v>
@@ -3710,7 +3804,7 @@
       <c r="D191" s="5"/>
       <c r="E191" s="4"/>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A192" s="2"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -4007,7 +4101,7 @@
       <c r="D224" s="5"/>
       <c r="E224" s="4"/>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A225" s="2"/>
       <c r="B225" s="1" t="s">
         <v>7</v>
@@ -4018,14 +4112,14 @@
       <c r="D225" s="5"/>
       <c r="E225" s="4"/>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A226" s="2"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
       <c r="D226" s="5"/>
       <c r="E226" s="4"/>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A227" s="2"/>
       <c r="B227" s="1" t="s">
         <v>8</v>
@@ -4036,14 +4130,14 @@
       <c r="D227" s="5"/>
       <c r="E227" s="4"/>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A228" s="2"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
       <c r="D228" s="5"/>
       <c r="E228" s="4"/>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A229" s="2"/>
       <c r="B229" s="1" t="s">
         <v>9</v>
@@ -4052,16 +4146,16 @@
         <v>35</v>
       </c>
       <c r="D229" s="5"/>
-      <c r="E229" s="7"/>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E229" s="4"/>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A230" s="2"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
       <c r="D230" s="5"/>
       <c r="E230" s="4"/>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A231" s="2"/>
       <c r="B231" s="1" t="s">
         <v>10</v>
@@ -4069,30 +4163,17 @@
       <c r="C231" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D231" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E231" s="7">
-        <v>45220</v>
-      </c>
-      <c r="F231" t="s">
-        <v>61</v>
-      </c>
-      <c r="G231" t="s">
-        <v>86</v>
-      </c>
-      <c r="H231" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D231" s="5"/>
+      <c r="E231" s="4"/>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A232" s="2"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
       <c r="D232" s="5"/>
       <c r="E232" s="4"/>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A233" s="2"/>
       <c r="B233" s="1" t="s">
         <v>11</v>
@@ -4101,15 +4182,16 @@
         <v>35</v>
       </c>
       <c r="D233" s="5"/>
-      <c r="E233" s="7"/>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E233" s="4"/>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A234" s="2"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
+      <c r="D234" s="5"/>
       <c r="E234" s="4"/>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A235" s="2"/>
       <c r="B235" s="1" t="s">
         <v>29</v>
@@ -4120,14 +4202,14 @@
       <c r="D235" s="5"/>
       <c r="E235" s="4"/>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A236" s="2"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
       <c r="D236" s="4"/>
       <c r="E236" s="4"/>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A237"/>
       <c r="B237" t="s">
         <v>37</v>
@@ -4138,14 +4220,14 @@
       <c r="D237" s="4"/>
       <c r="E237" s="4"/>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A238"/>
       <c r="B238"/>
       <c r="C238"/>
       <c r="D238" s="4"/>
       <c r="E238" s="4"/>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A239"/>
       <c r="B239" t="s">
         <v>31</v>
@@ -4163,18 +4245,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7517E2C-6F9F-784C-B257-599DEE4B6BE5}">
-  <dimension ref="A1:H231"/>
+  <dimension ref="A1:G231"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" zoomScale="117" workbookViewId="0">
-      <selection activeCell="H91" sqref="H91"/>
+    <sheetView topLeftCell="A52" zoomScale="117" workbookViewId="0">
+      <selection activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="19.58203125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="4"/>
-    <col min="6" max="6" width="20.9140625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="4"/>
+    <col min="4" max="4" width="14.25" style="4" customWidth="1"/>
+    <col min="5" max="7" width="10.6640625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -4310,13 +4390,13 @@
       </c>
       <c r="D16" s="5"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="5"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="1" t="s">
         <v>10</v>
@@ -4326,13 +4406,13 @@
       </c>
       <c r="D18" s="5"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="1" t="s">
         <v>11</v>
@@ -4342,13 +4422,13 @@
       </c>
       <c r="D20" s="5"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="5"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
       <c r="B22" s="1" t="s">
         <v>29</v>
@@ -4358,13 +4438,13 @@
       </c>
       <c r="D22" s="5"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="5"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
       <c r="B24" s="1" t="s">
         <v>30</v>
@@ -4374,13 +4454,13 @@
       </c>
       <c r="D24" s="5"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="5"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
       <c r="B26" s="1" t="s">
         <v>31</v>
@@ -4388,17 +4468,27 @@
       <c r="C26" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="7"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D26" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E26" s="7">
+        <v>44729</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
       <c r="B27" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
       <c r="B28" s="1" t="s">
         <v>0</v>
@@ -4408,7 +4498,7 @@
       </c>
       <c r="D28" s="5"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="2"/>
       <c r="B29" s="1" t="s">
         <v>13</v>
@@ -4418,13 +4508,13 @@
       </c>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="5"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="2"/>
       <c r="B31" s="1" t="s">
         <v>14</v>
@@ -4434,13 +4524,13 @@
       </c>
       <c r="D31" s="5"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="2"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="5"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="2"/>
       <c r="B33" s="1" t="s">
         <v>5</v>
@@ -4450,13 +4540,13 @@
       </c>
       <c r="D33" s="5"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="2"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="5"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
       <c r="B35" s="1" t="s">
         <v>6</v>
@@ -4466,13 +4556,13 @@
       </c>
       <c r="D35" s="5"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="5"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="2"/>
       <c r="B37" s="1" t="s">
         <v>7</v>
@@ -4482,13 +4572,13 @@
       </c>
       <c r="D37" s="5"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="2"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="5"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="2"/>
       <c r="B39" s="1" t="s">
         <v>8</v>
@@ -4498,13 +4588,13 @@
       </c>
       <c r="D39" s="5"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="2"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="5"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="2"/>
       <c r="B41" s="1" t="s">
         <v>9</v>
@@ -4514,13 +4604,13 @@
       </c>
       <c r="D41" s="5"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="2"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="5"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="2"/>
       <c r="B43" s="1" t="s">
         <v>10</v>
@@ -4528,16 +4618,26 @@
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D43" s="5"/>
-      <c r="E43" s="7"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D43" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="2"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="5"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="2"/>
       <c r="B45" s="1" t="s">
         <v>11</v>
@@ -4547,13 +4647,13 @@
       </c>
       <c r="D45" s="5"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="2"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="5"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="2"/>
       <c r="B47" s="1" t="s">
         <v>12</v>
@@ -4562,22 +4662,19 @@
         <v>35</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="E47" s="7">
-        <v>45220</v>
+        <v>45024</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="H47" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="2"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -4712,7 +4809,7 @@
       <c r="C64" s="1"/>
       <c r="D64" s="5"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="2"/>
       <c r="B65" s="1" t="s">
         <v>8</v>
@@ -4722,13 +4819,13 @@
       </c>
       <c r="D65" s="5"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="2"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="5"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="2"/>
       <c r="B67" s="1" t="s">
         <v>9</v>
@@ -4736,15 +4833,26 @@
       <c r="C67" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D67" s="5"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D67" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E67" s="7">
+        <v>45165</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="2"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="5"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="2"/>
       <c r="B69" s="1" t="s">
         <v>10</v>
@@ -4754,13 +4862,13 @@
       </c>
       <c r="D69" s="5"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="2"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="5"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" s="2"/>
       <c r="B71" s="1" t="s">
         <v>11</v>
@@ -4770,13 +4878,13 @@
       </c>
       <c r="D71" s="5"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="2"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="5"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="2"/>
       <c r="B73" s="1" t="s">
         <v>29</v>
@@ -4786,13 +4894,13 @@
       </c>
       <c r="D73" s="5"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="2"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="5"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="2"/>
       <c r="B75" s="1" t="s">
         <v>30</v>
@@ -4802,13 +4910,13 @@
       </c>
       <c r="D75" s="5"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" s="2"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="5"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" s="2"/>
       <c r="B77" s="1" t="s">
         <v>31</v>
@@ -4818,20 +4926,20 @@
       </c>
       <c r="D77" s="5"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" s="2"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="5"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" s="2"/>
       <c r="B79" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="2"/>
       <c r="B80" s="1" t="s">
         <v>0</v>
@@ -4841,7 +4949,7 @@
       </c>
       <c r="D80" s="5"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" s="2"/>
       <c r="B81" s="1" t="s">
         <v>13</v>
@@ -4851,13 +4959,13 @@
       </c>
       <c r="D81" s="5"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" s="2"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="5"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" s="2"/>
       <c r="B83" s="1" t="s">
         <v>14</v>
@@ -4867,13 +4975,13 @@
       </c>
       <c r="D83" s="5"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="2"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="5"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" s="2"/>
       <c r="B85" s="1" t="s">
         <v>5</v>
@@ -4883,13 +4991,13 @@
       </c>
       <c r="D85" s="5"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" s="2"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="5"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" s="2"/>
       <c r="B87" s="1" t="s">
         <v>6</v>
@@ -4899,13 +5007,13 @@
       </c>
       <c r="D87" s="5"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" s="2"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="5"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" s="2"/>
       <c r="B89" s="1" t="s">
         <v>7</v>
@@ -4915,13 +5023,13 @@
       </c>
       <c r="D89" s="5"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" s="2"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="5"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" s="2"/>
       <c r="B91" s="1" t="s">
         <v>8</v>
@@ -4930,28 +5038,25 @@
         <v>35</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="E91" s="7">
-        <v>45220</v>
+        <v>45165</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="H91" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" s="2"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="5"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" s="2"/>
       <c r="B93" s="1" t="s">
         <v>9</v>
@@ -4961,13 +5066,13 @@
       </c>
       <c r="D93" s="5"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" s="2"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="5"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" s="2"/>
       <c r="B95" s="1" t="s">
         <v>10</v>
@@ -4977,13 +5082,13 @@
       </c>
       <c r="D95" s="5"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" s="2"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="5"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" s="2"/>
       <c r="B97" s="1" t="s">
         <v>11</v>
@@ -4993,13 +5098,13 @@
       </c>
       <c r="D97" s="5"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="2"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="5"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" s="2"/>
       <c r="B99" s="1" t="s">
         <v>15</v>
@@ -5009,37 +5114,36 @@
       </c>
       <c r="D99" s="5"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" s="2"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="5"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="2"/>
       <c r="B101" s="1" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D101" s="5"/>
-      <c r="E101" s="7"/>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" s="2"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="5"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" s="2"/>
       <c r="B103" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C103" s="1"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" s="2"/>
       <c r="B104" s="1" t="s">
         <v>0</v>
@@ -5049,7 +5153,7 @@
       </c>
       <c r="D104" s="5"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" s="2"/>
       <c r="B105" s="1" t="s">
         <v>13</v>
@@ -5059,13 +5163,13 @@
       </c>
       <c r="D105" s="5"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" s="2"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="5"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" s="2"/>
       <c r="B107" s="1" t="s">
         <v>14</v>
@@ -5075,13 +5179,13 @@
       </c>
       <c r="D107" s="5"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" s="2"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="5"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" s="2"/>
       <c r="B109" s="1" t="s">
         <v>5</v>
@@ -5091,13 +5195,13 @@
       </c>
       <c r="D109" s="5"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" s="2"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="5"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" s="2"/>
       <c r="B111" s="1" t="s">
         <v>6</v>
@@ -5107,13 +5211,13 @@
       </c>
       <c r="D111" s="5"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" s="2"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="5"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" s="2"/>
       <c r="B113" s="1" t="s">
         <v>7</v>
@@ -5123,13 +5227,13 @@
       </c>
       <c r="D113" s="5"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" s="2"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="5"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" s="2"/>
       <c r="B115" s="1" t="s">
         <v>8</v>
@@ -5139,13 +5243,13 @@
       </c>
       <c r="D115" s="5"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" s="2"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="5"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" s="2"/>
       <c r="B117" s="1" t="s">
         <v>9</v>
@@ -5155,13 +5259,13 @@
       </c>
       <c r="D117" s="5"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" s="2"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="5"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" s="2"/>
       <c r="B119" s="1" t="s">
         <v>10</v>
@@ -5171,13 +5275,13 @@
       </c>
       <c r="D119" s="5"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" s="2"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="5"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" s="2"/>
       <c r="B121" s="1" t="s">
         <v>11</v>
@@ -5187,13 +5291,13 @@
       </c>
       <c r="D121" s="5"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" s="2"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="5"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" s="2"/>
       <c r="B123" s="1" t="s">
         <v>29</v>
@@ -5202,15 +5306,14 @@
         <v>35</v>
       </c>
       <c r="D123" s="5"/>
-      <c r="E123" s="7"/>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" s="2"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="5"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" s="2"/>
       <c r="B125" s="1" t="s">
         <v>30</v>
@@ -5220,13 +5323,13 @@
       </c>
       <c r="D125" s="5"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" s="2"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="5"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" s="2"/>
       <c r="B127" s="1" t="s">
         <v>31</v>
@@ -5236,7 +5339,7 @@
       </c>
       <c r="D127" s="5"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" s="2"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -6068,10 +6171,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1264358B-42F3-BF44-A497-B70A8A3F8DB6}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -6223,7 +6326,7 @@
       <c r="D16" s="5"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="1" t="s">
         <v>10</v>
@@ -6234,14 +6337,14 @@
       <c r="D17" s="5"/>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="5"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="1" t="s">
         <v>11</v>
@@ -6252,14 +6355,14 @@
       <c r="D19" s="5"/>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="5"/>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="1" t="s">
         <v>29</v>
@@ -6270,14 +6373,14 @@
       <c r="D21" s="5"/>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="5"/>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
       <c r="B23" s="1" t="s">
         <v>30</v>
@@ -6288,32 +6391,40 @@
       <c r="D23" s="5"/>
       <c r="E23" s="4"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+      <c r="C25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s">
         <v>35</v>
       </c>
       <c r="D27" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="E27" s="8">
-        <v>45220</v>
+        <v>45024</v>
       </c>
       <c r="F27" t="s">
+        <v>50</v>
+      </c>
+      <c r="G27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" t="s">
         <v>61</v>
-      </c>
-      <c r="G27" t="s">
-        <v>75</v>
-      </c>
-      <c r="H27" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -6325,8 +6436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5966D34-AFDC-8D46-87F5-1A179AC4B902}">
   <dimension ref="A1:G86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:G12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -6481,10 +6592,18 @@
       <c r="C14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="D14" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" s="7">
+        <v>44345</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
@@ -7833,14 +7952,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E22797B1-D157-4F23-BC29-DEA3C11849AE}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="6" max="6" width="13.25" customWidth="1"/>
-    <col min="7" max="7" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="13.25" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -7859,15 +7978,12 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="5" t="s">
         <v>34</v>
       </c>
     </row>
@@ -7879,9 +7995,6 @@
       <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
@@ -7889,13 +8002,11 @@
       <c r="C4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
@@ -7905,13 +8016,11 @@
       <c r="C6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
@@ -7921,13 +8030,11 @@
       <c r="C8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
@@ -7937,13 +8044,11 @@
       <c r="C10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
@@ -7953,13 +8058,11 @@
       <c r="C12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="5"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
@@ -7969,13 +8072,11 @@
       <c r="C14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="5"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
@@ -7985,15 +8086,25 @@
       <c r="C16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="5"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" s="8">
+        <v>44877</v>
+      </c>
+      <c r="F16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="5"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="1" t="s">
         <v>10</v>
@@ -8001,15 +8112,13 @@
       <c r="C18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="5"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="5"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="1" t="s">
         <v>11</v>
@@ -8017,15 +8126,25 @@
       <c r="C20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" s="8">
+        <v>44836</v>
+      </c>
+      <c r="F20" t="s">
+        <v>89</v>
+      </c>
+      <c r="G20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="5"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
       <c r="B22" s="1" t="s">
         <v>29</v>
@@ -8033,15 +8152,25 @@
       <c r="C22" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="5"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D22" t="s">
+        <v>105</v>
+      </c>
+      <c r="E22" s="8">
+        <v>44962</v>
+      </c>
+      <c r="F22" t="s">
+        <v>106</v>
+      </c>
+      <c r="G22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="5"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
       <c r="B24" s="1" t="s">
         <v>30</v>
@@ -8049,7 +8178,6 @@
       <c r="C24" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
